--- a/仕様書/分割/分割-AI.xlsx
+++ b/仕様書/分割/分割-AI.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BD1039-B3DE-420C-BBA6-492AF54D0CD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -29,18 +30,18 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ページ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>日付</t>
@@ -50,11 +51,11 @@
     <rPh sb="1" eb="2">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>モーションリスト</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>モーションリストの追加と統合</t>
@@ -64,14 +65,14 @@
     <rPh sb="12" eb="14">
       <t>トウゴウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>目録</t>
     <rPh sb="0" eb="2">
       <t>モクロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>目録の追加</t>
@@ -81,11 +82,11 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ギミック</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を修正</t>
@@ -98,14 +99,14 @@
     <rPh sb="21" eb="23">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>操作仕様</t>
     <rPh sb="0" eb="4">
       <t>ソウサシヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「ギミックの操作（方向選ぶタイプ）」を消して、「発動後のギミック操作（方向選択）」に変更した。ギミックの操作の5とP.S.を修正した</t>
@@ -130,7 +131,7 @@
     <rPh sb="62" eb="64">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を更新した</t>
@@ -143,7 +144,7 @@
     <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>操作仕様を記入した</t>
@@ -153,7 +154,7 @@
     <rPh sb="5" eb="7">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックをざっと記入した</t>
@@ -166,21 +167,21 @@
     <rPh sb="17" eb="19">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ギミックをざっと分類する</t>
     <rPh sb="8" eb="10">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>４、AI仕様</t>
     <rPh sb="4" eb="6">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1、殺人鬼</t>
@@ -190,18 +191,18 @@
     <rPh sb="4" eb="5">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>２、泥棒</t>
     <rPh sb="2" eb="4">
       <t>ドロボウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>１－１泥棒追跡</t>
@@ -211,27 +212,14 @@
     <rPh sb="5" eb="7">
       <t>ツイセキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>基本ルール</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>１、基本には泥棒を追う。</t>
-    <rPh sb="2" eb="4">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ドロボウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>２、壁を無視して移動する。</t>
@@ -244,7 +232,7 @@
     <rPh sb="8" eb="10">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>殺人鬼が泥棒または警備員を追跡する時、直接泥棒を追うではなく、泥棒前方の点に移動する。</t>
@@ -287,7 +275,7 @@
     <rPh sb="38" eb="40">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>殺人鬼と泥棒の移動方向から、その点と泥棒の間の距離を決める。</t>
@@ -309,7 +297,7 @@
     <rPh sb="26" eb="27">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>つまり、移動ベクトルの夾角によって、追跡点が変わる。</t>
@@ -325,7 +313,7 @@
     <rPh sb="22" eb="23">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>夾角が大きければ大きいほど、追跡点が泥棒から離れる。</t>
@@ -347,56 +335,7 @@
     <rPh sb="22" eb="23">
       <t>ハナ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>３、警備員が一定距離内にいると（３M仮）、優先に警備員を追う。警備員が（３M仮）以上離すと、泥棒を追い続ける。</t>
-    <rPh sb="2" eb="5">
-      <t>ケイビイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ケイビイン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ケイビイン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ドロボウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>計算式は　S＝ｋ*cos(α)　　の感じ。Kは定数である。</t>
@@ -412,7 +351,7 @@
     <rPh sb="23" eb="25">
       <t>テイスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>計算式を変えてもかまいません。</t>
@@ -425,7 +364,7 @@
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>１－２自由探索</t>
@@ -435,7 +374,7 @@
     <rPh sb="5" eb="7">
       <t>タンサク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>泥棒が通風口に入るまたは棺桶にはいたら、警備員が一定距離外（３M仮）にいると、殺人鬼が自由探索モードに切り替える。</t>
@@ -487,7 +426,7 @@
     <rPh sb="53" eb="54">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>このモードが自由探索モードに入ったタイミングの位置を中心に、ブラウン運動をする。</t>
@@ -509,7 +448,7 @@
     <rPh sb="34" eb="36">
       <t>ウンドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>つまり、ランダムに動くが、距離が離せば離すほど、そっちへ移動する可能性が低くなる。</t>
@@ -537,7 +476,7 @@
     <rPh sb="36" eb="37">
       <t>ヒク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>移動方式が、ランダム点を選んで、そっちへ直線移動する。到着すると、次の点を選んで移動する。</t>
@@ -574,7 +513,7 @@
     <rPh sb="40" eb="42">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>殺人鬼の「泥棒追跡」と「基本ルール」と「自由探索」を追加</t>
@@ -602,19 +541,265 @@
     <rPh sb="26" eb="28">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>基本ルール</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３、警備員が一定距離内にいると（３M仮）、警備員を追う状態になる。</t>
+    <rPh sb="2" eb="5">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>１、基本には泥棒を追う。</t>
+  </si>
+  <si>
+    <t>４、警備員を追う状態で、警備員が殺人鬼と一定距離（5M仮）を取ると、泥棒を追う状態になる。</t>
+    <rPh sb="16" eb="19">
+      <t>サツジンキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドロボウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>１、基本には、ステージ内の宝との最短距離を沿って移動する。</t>
+    <rPh sb="2" eb="4">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>２、泥棒は警備員または殺人鬼を通らない壁に見える。</t>
+    <rPh sb="2" eb="4">
+      <t>ドロボウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サツジンキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>４、宝と設定された点への道が全部詰んだら、出口へ移動する。</t>
+    <rPh sb="2" eb="3">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デクチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>３、宝への道が詰んだら、マップ上の設定された点に最短距離を沿って移動する。（一部のステージ内設定された点がない）</t>
+    <rPh sb="2" eb="3">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>５、さらに、出口への道も詰んだら、警備員から遠ざかる。</t>
+    <rPh sb="6" eb="8">
+      <t>デクチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>P.S.警備員と殺人鬼に包囲された場合</t>
+    <rPh sb="4" eb="7">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サツジンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>殺人鬼「基本ルール」の４を追加、泥棒の基本ルールを追加</t>
+    <rPh sb="0" eb="2">
+      <t>サツジン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドロボウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,71 +967,77 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -854,7 +1045,7 @@
     <cellStyle name="どちらでもない" xfId="5" builtinId="28"/>
     <cellStyle name="悪い" xfId="4" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -876,31 +1067,43 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8505825" y="2838450"/>
-          <a:ext cx="304800" cy="666750"/>
+          <a:off x="8439150" y="2962275"/>
+          <a:ext cx="300990" cy="638175"/>
           <a:chOff x="8267700" y="3390900"/>
           <a:chExt cx="304800" cy="666750"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="楕円 2"/>
+          <xdr:cNvPr id="3" name="楕円 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -942,7 +1145,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="下矢印 3"/>
+          <xdr:cNvPr id="4" name="下矢印 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -994,31 +1203,43 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>135055</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>14665</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7467600" y="2724150"/>
-          <a:ext cx="525580" cy="386140"/>
+          <a:off x="7408545" y="2847975"/>
+          <a:ext cx="521770" cy="367090"/>
           <a:chOff x="7229475" y="3152775"/>
           <a:chExt cx="525580" cy="386140"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="楕円 1"/>
+          <xdr:cNvPr id="2" name="楕円 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1060,7 +1281,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="下矢印 4"/>
+          <xdr:cNvPr id="5" name="下矢印 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1112,31 +1339,43 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>125106</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>90795</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190815</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411981" y="2809876"/>
-          <a:ext cx="918189" cy="714689"/>
+          <a:off x="9337686" y="2933701"/>
+          <a:ext cx="910569" cy="686114"/>
           <a:chOff x="7897506" y="3629026"/>
           <a:chExt cx="918189" cy="714689"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="グループ化 10"/>
+          <xdr:cNvPr id="11" name="グループ化 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1149,7 +1388,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="下矢印 7"/>
+            <xdr:cNvPr id="8" name="下矢印 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1196,7 +1441,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="下矢印 8"/>
+            <xdr:cNvPr id="9" name="下矢印 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1243,7 +1494,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="円弧 9"/>
+            <xdr:cNvPr id="10" name="円弧 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1289,7 +1546,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1345,18 +1608,24 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13"/>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1402,18 +1671,24 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="線吹き出し 1 (枠付き) 14"/>
+        <xdr:cNvPr id="15" name="線吹き出し 1 (枠付き) 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1476,31 +1751,43 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>11777</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8896350" y="2981325"/>
-          <a:ext cx="402302" cy="676275"/>
+          <a:off x="8825865" y="3095625"/>
+          <a:ext cx="398492" cy="647700"/>
           <a:chOff x="8896350" y="2981325"/>
           <a:chExt cx="402302" cy="676275"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+          <xdr:cNvPr id="17" name="直線コネクタ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1534,7 +1821,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+          <xdr:cNvPr id="18" name="直線コネクタ 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1568,7 +1861,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+          <xdr:cNvPr id="19" name="直線コネクタ 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1602,7 +1901,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1640,6 +1945,809 @@
               <a:t>ｓ</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5B633E-12F6-42CE-8E02-AFFE441339F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1013460" y="8458200"/>
+          <a:ext cx="2202180" cy="1485900"/>
+          <a:chOff x="1097280" y="8420100"/>
+          <a:chExt cx="2202180" cy="1485900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739DEEAA-3F13-4445-ADD9-E007DC42B594}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1097280" y="9410700"/>
+            <a:ext cx="2179320" cy="495300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>通行不可</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="グループ化 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29C31BA-D235-4501-9050-8056AE008A8C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1120140" y="8420100"/>
+            <a:ext cx="2179320" cy="914400"/>
+            <a:chOff x="1120140" y="8420100"/>
+            <a:chExt cx="2179320" cy="914400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="正方形/長方形 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457F0113-6E15-4017-B90E-CB755BEE9C02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1120140" y="8420100"/>
+              <a:ext cx="2179320" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>通行不可</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="楕円 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE815006-AF58-4881-BF15-CBEEDE9E9928}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1988820" y="8991600"/>
+              <a:ext cx="342900" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>泥</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="楕円 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81121B8D-7605-4548-975D-5CDE1A5903BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2773680" y="8983980"/>
+              <a:ext cx="342900" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>警</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="楕円 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4083B6B-B256-40ED-B161-F0DEFC15E584}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1203960" y="8983980"/>
+              <a:ext cx="342900" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>鬼</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矢印: 右 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF38985E-6286-4A56-9EBC-CABE9B952EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741420" y="8877300"/>
+          <a:ext cx="655320" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="グループ化 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3D598-EBED-46BC-8822-A20A0599F373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4587240" y="8359140"/>
+          <a:ext cx="2621280" cy="1783080"/>
+          <a:chOff x="4564380" y="8412480"/>
+          <a:chExt cx="2621280" cy="1783080"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="38" name="グループ化 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41856775-6771-4196-ABD1-033183051E0F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4823460" y="8412480"/>
+            <a:ext cx="2202180" cy="1485900"/>
+            <a:chOff x="4823460" y="8412480"/>
+            <a:chExt cx="2202180" cy="1485900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="正方形/長方形 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957513C-857B-4A97-A59D-CFB3A224A531}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4846320" y="8412480"/>
+              <a:ext cx="2179320" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>通行不可</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="正方形/長方形 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB80446-D926-4551-8C53-9E5814DAF414}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4823460" y="9403080"/>
+              <a:ext cx="2179320" cy="495300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+                <a:t>通行不可</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="楕円 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90F8F89-C78B-4991-AE5E-DB99D8954752}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5349240" y="8968740"/>
+              <a:ext cx="342900" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>泥</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="楕円 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A15A22B-0BE3-4BEC-8252-C6B5854A46AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6499860" y="8976360"/>
+              <a:ext cx="342900" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>警</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="楕円 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90D1F74-B104-4D9C-8FFB-6D9B348B670C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4930140" y="8976360"/>
+              <a:ext cx="342900" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>鬼</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584CA9D9-8F2F-478F-980C-D91DFAD2E77C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5539740" y="9151620"/>
+              <a:ext cx="434340" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="テキスト ボックス 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B816C3A-7E2A-4A2C-A968-C2AE7B558AAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4564380" y="9913620"/>
+            <a:ext cx="2621280" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>泥棒が殺人鬼へ移動して、自殺する</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1911,35 +3019,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:AZ5"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="3.125" style="2"/>
-    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="3.125" style="2"/>
+    <col min="1" max="5" width="3.09765625" style="2"/>
+    <col min="6" max="6" width="16.3984375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="3.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1998,19 +3106,19 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2069,732 +3177,800 @@
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
     </row>
-    <row r="3" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="4" t="s">
+    <row r="3" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="4" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="6"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="13"/>
     </row>
-    <row r="5" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="7">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="14">
         <v>43617</v>
       </c>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="6"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="13"/>
     </row>
-    <row r="6" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="14">
+        <v>43617</v>
+      </c>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="13"/>
+    </row>
+    <row r="7" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="7">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="14">
         <v>43597</v>
       </c>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="6"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="13"/>
     </row>
-    <row r="7" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="7">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="14">
         <v>43597</v>
       </c>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="6"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="13"/>
     </row>
-    <row r="8" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="4" t="s">
+    <row r="9" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="7">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="14">
         <v>43595</v>
       </c>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="6"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="13"/>
     </row>
-    <row r="9" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="7">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="14">
         <v>43595</v>
       </c>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="5"/>
-      <c r="BF9" s="5"/>
-      <c r="BG9" s="6"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="13"/>
     </row>
-    <row r="10" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="7">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="14">
         <v>43593</v>
       </c>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="6"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="13"/>
     </row>
-    <row r="11" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="7">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="14">
         <v>43586</v>
       </c>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="6"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="13"/>
     </row>
-    <row r="12" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="7">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="14">
         <v>43586</v>
       </c>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="6"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="13"/>
     </row>
-    <row r="13" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="4" t="s">
+    <row r="14" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="7">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="14">
         <v>43584</v>
       </c>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="6"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:AZ14"/>
+    <mergeCell ref="BA14:BG14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:AZ12"/>
+    <mergeCell ref="BA12:BG12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:AZ13"/>
+    <mergeCell ref="BA13:BG13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:AZ10"/>
+    <mergeCell ref="BA10:BG10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:AZ11"/>
+    <mergeCell ref="BA11:BG11"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AZ8"/>
+    <mergeCell ref="BA8:BG8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:AZ9"/>
+    <mergeCell ref="BA9:BG9"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:AZ7"/>
+    <mergeCell ref="BA7:BG7"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:AZ6"/>
     <mergeCell ref="BA6:BG6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:AZ5"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:AZ7"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AZ8"/>
-    <mergeCell ref="BA8:BG8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:AZ9"/>
-    <mergeCell ref="BA9:BG9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:AZ10"/>
-    <mergeCell ref="BA10:BG10"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:AZ13"/>
-    <mergeCell ref="BA13:BG13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:AZ11"/>
-    <mergeCell ref="BA11:BG11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:AZ12"/>
-    <mergeCell ref="BA12:BG12"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BQ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="3.125" style="2"/>
-    <col min="8" max="8" width="3.125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="3.125" style="2"/>
+    <col min="1" max="7" width="3.09765625" style="2"/>
+    <col min="8" max="8" width="3.09765625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="3.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -2848,24 +4024,24 @@
       <c r="BP1" s="3"/>
       <c r="BQ1" s="3"/>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -2919,302 +4095,342 @@
       <c r="BP2" s="3"/>
       <c r="BQ2" s="3"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
     </row>
-    <row r="6" spans="1:69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:69" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:69" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:69" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E8" t="s">
+    <row r="9" spans="1:69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="E10" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="F13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:69" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E9" t="s">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="F16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="E11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
+    <row r="20" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F20" s="8"/>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="F12" s="16" t="s">
-        <v>24</v>
-      </c>
+    <row r="21" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="F13" s="16" t="s">
-        <v>25</v>
+    <row r="22" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F22" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="F14" s="16" t="s">
-        <v>26</v>
+    <row r="23" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F23" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="F15" s="16" t="s">
-        <v>27</v>
+    <row r="24" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F24" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="F16" s="16"/>
+    <row r="25" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F25" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F17" s="16" t="s">
-        <v>29</v>
-      </c>
+    <row r="26" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="F26" s="8"/>
     </row>
-    <row r="18" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F18" s="16" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="C28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
     </row>
-    <row r="19" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F19" s="16"/>
+    <row r="29" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="D29" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="E20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
+    <row r="30" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="E30" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="21" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F21" s="16" t="s">
-        <v>32</v>
+    <row r="31" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="E31" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="22" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F22" s="16" t="s">
-        <v>33</v>
+    <row r="32" spans="3:52" x14ac:dyDescent="0.45">
+      <c r="E32" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="23" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F23" s="16" t="s">
-        <v>34</v>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E33" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F24" s="16" t="s">
-        <v>35</v>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E34" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="25" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="F25" s="16"/>
-    </row>
-    <row r="27" spans="3:52" x14ac:dyDescent="0.4">
-      <c r="C27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E36" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q2"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
